--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Col11a1-Ddr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>19.0114025802025</v>
+        <v>0.006469666666666668</v>
       </c>
       <c r="H2">
-        <v>19.0114025802025</v>
+        <v>0.019409</v>
       </c>
       <c r="I2">
-        <v>0.9694202162912817</v>
+        <v>0.0003189585344045152</v>
       </c>
       <c r="J2">
-        <v>0.9694202162912817</v>
+        <v>0.0003189585344045152</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.87998551349961</v>
+        <v>0.353194</v>
       </c>
       <c r="N2">
-        <v>1.87998551349961</v>
+        <v>1.059582</v>
       </c>
       <c r="O2">
-        <v>0.09455128005835434</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="P2">
-        <v>0.09455128005835434</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="Q2">
-        <v>35.7411614420898</v>
+        <v>0.002285047448666667</v>
       </c>
       <c r="R2">
-        <v>35.7411614420898</v>
+        <v>0.020565427038</v>
       </c>
       <c r="S2">
-        <v>0.09165992236478741</v>
+        <v>5.532305027414777E-06</v>
       </c>
       <c r="T2">
-        <v>0.09165992236478741</v>
+        <v>5.532305027414776E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>19.0114025802025</v>
+        <v>0.006469666666666668</v>
       </c>
       <c r="H3">
-        <v>19.0114025802025</v>
+        <v>0.019409</v>
       </c>
       <c r="I3">
-        <v>0.9694202162912817</v>
+        <v>0.0003189585344045152</v>
       </c>
       <c r="J3">
-        <v>0.9694202162912817</v>
+        <v>0.0003189585344045152</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.204035667047674</v>
+        <v>1.890286333333333</v>
       </c>
       <c r="N3">
-        <v>0.204035667047674</v>
+        <v>5.670859</v>
       </c>
       <c r="O3">
-        <v>0.01026169263453836</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="P3">
-        <v>0.01026169263453836</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="Q3">
-        <v>3.879004206963488</v>
+        <v>0.01222952248122222</v>
       </c>
       <c r="R3">
-        <v>3.879004206963488</v>
+        <v>0.110065702331</v>
       </c>
       <c r="S3">
-        <v>0.009947892293288831</v>
+        <v>2.960877190765824E-05</v>
       </c>
       <c r="T3">
-        <v>0.009947892293288831</v>
+        <v>2.960877190765824E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>19.0114025802025</v>
+        <v>0.006469666666666668</v>
       </c>
       <c r="H4">
-        <v>19.0114025802025</v>
+        <v>0.019409</v>
       </c>
       <c r="I4">
-        <v>0.9694202162912817</v>
+        <v>0.0003189585344045152</v>
       </c>
       <c r="J4">
-        <v>0.9694202162912817</v>
+        <v>0.0003189585344045152</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.7992158558983</v>
+        <v>0.2252136666666666</v>
       </c>
       <c r="N4">
-        <v>17.7992158558983</v>
+        <v>0.6756409999999999</v>
       </c>
       <c r="O4">
-        <v>0.8951870273071072</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="P4">
-        <v>0.8951870273071072</v>
+        <v>0.01105995383486111</v>
       </c>
       <c r="Q4">
-        <v>338.3880582484062</v>
+        <v>0.001457057352111111</v>
       </c>
       <c r="R4">
-        <v>338.3880582484062</v>
+        <v>0.013113516169</v>
       </c>
       <c r="S4">
-        <v>0.8678124016332054</v>
+        <v>3.527666665748896E-06</v>
       </c>
       <c r="T4">
-        <v>0.8678124016332054</v>
+        <v>3.527666665748896E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.599703378506064</v>
+        <v>0.006469666666666668</v>
       </c>
       <c r="H5">
-        <v>0.599703378506064</v>
+        <v>0.019409</v>
       </c>
       <c r="I5">
-        <v>0.03057978370871827</v>
+        <v>0.0003189585344045152</v>
       </c>
       <c r="J5">
-        <v>0.03057978370871827</v>
+        <v>0.0003189585344045152</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.87998551349961</v>
+        <v>17.89429033333333</v>
       </c>
       <c r="N5">
-        <v>1.87998551349961</v>
+        <v>53.68287100000001</v>
       </c>
       <c r="O5">
-        <v>0.09455128005835434</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="P5">
-        <v>0.09455128005835434</v>
+        <v>0.8787656092256156</v>
       </c>
       <c r="Q5">
-        <v>1.127433663988174</v>
+        <v>0.1157700936932222</v>
       </c>
       <c r="R5">
-        <v>1.127433663988174</v>
+        <v>1.041930843239</v>
       </c>
       <c r="S5">
-        <v>0.002891357693566923</v>
+        <v>0.0002802897908036933</v>
       </c>
       <c r="T5">
-        <v>0.002891357693566923</v>
+        <v>0.0002802897908036932</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.599703378506064</v>
+        <v>19.329446</v>
       </c>
       <c r="H6">
-        <v>0.599703378506064</v>
+        <v>57.988338</v>
       </c>
       <c r="I6">
-        <v>0.03057978370871827</v>
+        <v>0.9529535422244141</v>
       </c>
       <c r="J6">
-        <v>0.03057978370871827</v>
+        <v>0.952953542224414</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.204035667047674</v>
+        <v>0.353194</v>
       </c>
       <c r="N6">
-        <v>0.204035667047674</v>
+        <v>1.059582</v>
       </c>
       <c r="O6">
-        <v>0.01026169263453836</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="P6">
-        <v>0.01026169263453836</v>
+        <v>0.01734490358674178</v>
       </c>
       <c r="Q6">
-        <v>0.1223608788642285</v>
+        <v>6.827044350524001</v>
       </c>
       <c r="R6">
-        <v>0.1223608788642285</v>
+        <v>61.443399154716</v>
       </c>
       <c r="S6">
-        <v>0.0003138003412495305</v>
+        <v>0.01652888731252652</v>
       </c>
       <c r="T6">
-        <v>0.0003138003412495305</v>
+        <v>0.01652888731252652</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.599703378506064</v>
+        <v>19.329446</v>
       </c>
       <c r="H7">
-        <v>0.599703378506064</v>
+        <v>57.988338</v>
       </c>
       <c r="I7">
-        <v>0.03057978370871827</v>
+        <v>0.9529535422244141</v>
       </c>
       <c r="J7">
-        <v>0.03057978370871827</v>
+        <v>0.952953542224414</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.7992158558983</v>
+        <v>1.890286333333333</v>
       </c>
       <c r="N7">
-        <v>17.7992158558983</v>
+        <v>5.670859</v>
       </c>
       <c r="O7">
-        <v>0.8951870273071072</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="P7">
-        <v>0.8951870273071072</v>
+        <v>0.09282953335278148</v>
       </c>
       <c r="Q7">
-        <v>10.67424988354091</v>
+        <v>36.53818760470467</v>
       </c>
       <c r="R7">
-        <v>10.67424988354091</v>
+        <v>328.843688442342</v>
       </c>
       <c r="S7">
-        <v>0.02737462567390182</v>
+        <v>0.0884622326315725</v>
       </c>
       <c r="T7">
-        <v>0.02737462567390182</v>
+        <v>0.08846223263157249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>19.329446</v>
+      </c>
+      <c r="H8">
+        <v>57.988338</v>
+      </c>
+      <c r="I8">
+        <v>0.9529535422244141</v>
+      </c>
+      <c r="J8">
+        <v>0.952953542224414</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.2252136666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.6756409999999999</v>
+      </c>
+      <c r="O8">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="P8">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="Q8">
+        <v>4.353255408295333</v>
+      </c>
+      <c r="R8">
+        <v>39.17929867465799</v>
+      </c>
+      <c r="S8">
+        <v>0.01053962218376938</v>
+      </c>
+      <c r="T8">
+        <v>0.01053962218376938</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>19.329446</v>
+      </c>
+      <c r="H9">
+        <v>57.988338</v>
+      </c>
+      <c r="I9">
+        <v>0.9529535422244141</v>
+      </c>
+      <c r="J9">
+        <v>0.952953542224414</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.89429033333333</v>
+      </c>
+      <c r="N9">
+        <v>53.68287100000001</v>
+      </c>
+      <c r="O9">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="P9">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="Q9">
+        <v>345.8867187064887</v>
+      </c>
+      <c r="R9">
+        <v>3112.980468358398</v>
+      </c>
+      <c r="S9">
+        <v>0.8374228000965457</v>
+      </c>
+      <c r="T9">
+        <v>0.8374228000965456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9478076666666667</v>
+      </c>
+      <c r="H10">
+        <v>2.843423</v>
+      </c>
+      <c r="I10">
+        <v>0.04672749924118139</v>
+      </c>
+      <c r="J10">
+        <v>0.04672749924118139</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.353194</v>
+      </c>
+      <c r="N10">
+        <v>1.059582</v>
+      </c>
+      <c r="O10">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="P10">
+        <v>0.01734490358674178</v>
+      </c>
+      <c r="Q10">
+        <v>0.3347599810206667</v>
+      </c>
+      <c r="R10">
+        <v>3.012839829186</v>
+      </c>
+      <c r="S10">
+        <v>0.0008104839691878408</v>
+      </c>
+      <c r="T10">
+        <v>0.0008104839691878408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9478076666666667</v>
+      </c>
+      <c r="H11">
+        <v>2.843423</v>
+      </c>
+      <c r="I11">
+        <v>0.04672749924118139</v>
+      </c>
+      <c r="J11">
+        <v>0.04672749924118139</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.890286333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.670859</v>
+      </c>
+      <c r="O11">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="P11">
+        <v>0.09282953335278148</v>
+      </c>
+      <c r="Q11">
+        <v>1.791627878928556</v>
+      </c>
+      <c r="R11">
+        <v>16.124650910357</v>
+      </c>
+      <c r="S11">
+        <v>0.004337691949301319</v>
+      </c>
+      <c r="T11">
+        <v>0.004337691949301319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.9478076666666667</v>
+      </c>
+      <c r="H12">
+        <v>2.843423</v>
+      </c>
+      <c r="I12">
+        <v>0.04672749924118139</v>
+      </c>
+      <c r="J12">
+        <v>0.04672749924118139</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.2252136666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.6756409999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="P12">
+        <v>0.01105995383486111</v>
+      </c>
+      <c r="Q12">
+        <v>0.2134592399047778</v>
+      </c>
+      <c r="R12">
+        <v>1.921133159143</v>
+      </c>
+      <c r="S12">
+        <v>0.0005168039844259736</v>
+      </c>
+      <c r="T12">
+        <v>0.0005168039844259736</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.9478076666666667</v>
+      </c>
+      <c r="H13">
+        <v>2.843423</v>
+      </c>
+      <c r="I13">
+        <v>0.04672749924118139</v>
+      </c>
+      <c r="J13">
+        <v>0.04672749924118139</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>17.89429033333333</v>
+      </c>
+      <c r="N13">
+        <v>53.68287100000001</v>
+      </c>
+      <c r="O13">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="P13">
+        <v>0.8787656092256156</v>
+      </c>
+      <c r="Q13">
+        <v>16.96034556749256</v>
+      </c>
+      <c r="R13">
+        <v>152.643110107433</v>
+      </c>
+      <c r="S13">
+        <v>0.04106251933826626</v>
+      </c>
+      <c r="T13">
+        <v>0.04106251933826626</v>
       </c>
     </row>
   </sheetData>
